--- a/Rcode/barrasRcode/powerArea.xlsx
+++ b/Rcode/barrasRcode/powerArea.xlsx
@@ -34,9 +34,6 @@
     <t xml:space="preserve">CellLeakagePower</t>
   </si>
   <si>
-    <t xml:space="preserve">impl0</t>
-  </si>
-  <si>
     <t xml:space="preserve">impl1</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">impl4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">impl5</t>
   </si>
 </sst>
 </file>
@@ -167,17 +167,16 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="997" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -199,13 +198,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>390013.637539</v>
+        <v>350031.624731</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>79.3533</v>
+        <v>693.7307</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>2.0381</v>
+        <v>1.8778</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -213,13 +212,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>350031.624731</v>
+        <v>357688.253875</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>693.7307</v>
+        <v>699.9652</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>1.8778</v>
+        <v>1.9611</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -227,13 +226,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>357688.253875</v>
+        <v>290179.448967</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>699.9652</v>
+        <v>661.2084</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>1.9611</v>
+        <v>1.6008</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -241,26 +240,26 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>290179.448967</v>
+        <v>260340.888442</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>661.2084</v>
+        <v>660.2362</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>1.6008</v>
+        <v>1.3871</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="0" t="n">
         <v>260340.888442</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="0" t="n">
         <v>660.2362</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="0" t="n">
         <v>1.3871</v>
       </c>
     </row>

--- a/Rcode/barrasRcode/powerArea.xlsx
+++ b/Rcode/barrasRcode/powerArea.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">impl4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">impl5</t>
   </si>
 </sst>
 </file>
@@ -164,19 +161,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="997" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -198,13 +196,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>350031.624731</v>
+        <v>357688.253875</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>693.7307</v>
+        <v>699.9652</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>1.8778</v>
+        <v>1.9611</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -212,13 +210,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>357688.253875</v>
+        <v>290179.448967</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>699.9652</v>
+        <v>661.2084</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>1.9611</v>
+        <v>1.6008</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -226,40 +224,26 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>290179.448967</v>
+        <v>260340.888442</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>661.2084</v>
+        <v>660.2362</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>1.6008</v>
+        <v>1.3871</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="0" t="n">
         <v>260340.888442</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="0" t="n">
         <v>660.2362</v>
       </c>
-      <c r="D5" s="3" t="n">
-        <v>1.3871</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>260340.888442</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>660.2362</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>1.3871</v>
       </c>
     </row>
